--- a/Documentation/Backlog.xlsx
+++ b/Documentation/Backlog.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proprio\Desktop\Éric\PROJET-ANDROID\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Desktop\Android\PROJET-ANDROID\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1865B91-8408-480E-BDC9-4A02D2D681A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC4A9B-CBC1-47E1-9822-F8DBDCF96DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{624E76F3-A4FB-4171-97BE-78A335F523D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{624E76F3-A4FB-4171-97BE-78A335F523D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint#1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint2Eric" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint2P-L" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint#1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +80,6 @@
     <t>L'application doit avoir accès à la caméra.</t>
   </si>
   <si>
-    <t>L'application doit avoir au GPS.</t>
-  </si>
-  <si>
     <t>En tant qu'usager, je souhaite qu'il y ai une animation d'ouverture d'application afin que l'application me démontre qu'elle fonctionne.</t>
   </si>
   <si>
@@ -118,6 +117,45 @@
   </si>
   <si>
     <t>La notification est unique lors de l'arriver à un endroit</t>
+  </si>
+  <si>
+    <t>L'application doit avoir accès au GPS.</t>
+  </si>
+  <si>
+    <t>En tant qu'usager, je souhaite qu'il y ai un GPS afin d'éventuellement pouvoir recevoir des notification basée sur ma localisation GPS.</t>
+  </si>
+  <si>
+    <t>La mise à jour de la localisation doit s'effectuer environ au 20 secondes</t>
+  </si>
+  <si>
+    <t>En tant qu'usager, je souhaite pouvoir nommer mes photos afin que je puisse mieux les retrouver.</t>
+  </si>
+  <si>
+    <t>Le nom des photos apparaît quand on les visionnes dans la galerie</t>
+  </si>
+  <si>
+    <t>La date est concatener pour éviter les doublons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les photos contiennent aussi des information concernant leur localisation. </t>
+  </si>
+  <si>
+    <t>L'utilisateur peux changer le nom des photos</t>
+  </si>
+  <si>
+    <t>L'utilisateur peux choisir le noms des nouvelles photos.</t>
+  </si>
+  <si>
+    <t>La notification est unique lors de l'arriver à un endroit.</t>
+  </si>
+  <si>
+    <t>Le texte de la notification est "Souvenir à revoir!".</t>
+  </si>
+  <si>
+    <t>Le click de la notification nous amènes à la galerie de photo.</t>
+  </si>
+  <si>
+    <t>Il y a un log qui avertit quel photo a créer la notification.</t>
   </si>
 </sst>
 </file>
@@ -472,19 +510,19 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="147.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="147.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,15 +567,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -548,18 +586,18 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -570,18 +608,18 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -595,69 +633,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -671,15 +709,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -690,15 +728,15 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -707,19 +745,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE80D82-8CDB-4058-AF59-8CCC0D388267}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DCA428-FC74-44FC-8F98-F9B4D3FE1AC0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA003CD-DA98-48EE-B733-1EE2A2D4BF2B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -750,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -764,15 +1047,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -783,18 +1066,18 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -805,15 +1088,15 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
